--- a/data/long_bre/P24_7-Urba-long_bre.xlsx
+++ b/data/long_bre/P24_7-Urba-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,5%</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>57,31%</t>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>34,32%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>55,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-18,72%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16,33%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 8,2</t>
+          <t>-0,33; 8,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 8,82</t>
+          <t>0,76; 8,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 93,56</t>
+          <t>-6,94; 2,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,81; 118,68</t>
+          <t>-3,37; 7,71</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 94,79</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6,84; 109,43</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-48,44; 22,73</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-23,41; 86,48</t>
         </is>
       </c>
     </row>
@@ -632,27 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,68</t>
+          <t>-6,1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,27</t>
+          <t>-6,78</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,47%</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,98%</t>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-8,01%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-8,62%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-0,48%</t>
         </is>
       </c>
     </row>
@@ -665,22 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 1,83</t>
+          <t>-12,45; 1,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 0,73</t>
+          <t>-12,2; -1,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 2,53</t>
+          <t>-6,94; 8,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 0,72</t>
+          <t>-8,34; 6,89</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-15,63; 2,33</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-14,93; -1,86</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-9,68; 12,99</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-11,31; 10,89</t>
         </is>
       </c>
     </row>
@@ -688,27 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18,63%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13,77%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6,54%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-7,93%</t>
         </is>
       </c>
     </row>
@@ -721,54 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 6,59</t>
+          <t>-5,02; 7,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 5,48</t>
+          <t>-3,63; 5,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,75; 60,23</t>
+          <t>-5,33; 8,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-29,39; 55,73</t>
+          <t>-7,62; 4,6</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-27,98; 70,33</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-24,29; 58,18</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-19,87; 45,9</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-31,44; 27,43</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,35%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-20,91%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 9,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 1,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 113,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,22; 19,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,71%</t>
+          <t>-5,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>35,22%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-21,87%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-35,3%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,6%</t>
         </is>
       </c>
     </row>
@@ -837,22 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 9,7</t>
+          <t>-2,37; 10,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 12,94</t>
+          <t>-7,29; 1,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 14,66</t>
+          <t>-11,78; -0,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 19,75</t>
+          <t>-8,76; 8,72</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-18,32; 124,3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-47,65; 19,78</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-59,19; 0,59</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-57,79; 109,52</t>
         </is>
       </c>
     </row>
@@ -860,27 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-19,91%</t>
+          <t>-5,52</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-18,65%</t>
+          <t>-6,21</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-2,21%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6,68%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-8,05%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-8,82%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 2,69</t>
+          <t>-9,56; 6,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 2,07</t>
+          <t>-1,53; 11,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-60,69; 23,32</t>
+          <t>-13,95; 2,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,35; 17,31</t>
+          <t>-20,21; 8,08</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-11,95; 9,57</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 17,83</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-18,79; 4,63</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-26,67; 12,66</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,93</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>180,16%</t>
+          <t>11,05</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>6,28</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-15,19%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-13,16%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>70,39%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>35,15%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 18,2</t>
+          <t>-9,76; 3,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 8,02</t>
+          <t>-8,75; 3,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 781,79</t>
+          <t>4,51; 18,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-50,36; 108,79</t>
+          <t>-4,83; 19,06</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-50,22; 31,62</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-43,29; 23,61</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>22,11; 142,28</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-24,59; 146,2</t>
         </is>
       </c>
     </row>
@@ -976,27 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-10,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-12,85%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-7,72%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,15; 1,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 6,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 2,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,08; 8,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>9,86</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>49,14%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>172,81%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>53,91%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 9,46</t>
+          <t>1,66; 18,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 14,86</t>
+          <t>-8,74; 9,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-55,29; 144,5</t>
+          <t>-5,55; 13,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-24,15; 185,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,44; 804,79</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-49,85; 116,98</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-47,47; 402,88</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>-11,51</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>42,7%</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-13,9%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-6,43%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1,04; 7,28</t>
+          <t>-24,02; 0,37</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 4,45</t>
+          <t>-16,26; 7,06</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>7,87; 86,57</t>
+          <t>-15,74; 20,56</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 48,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-27,46; 0,38</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-20,54; 9,85</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-19,91; 39,62</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,64%</t>
+          <t>-6,52</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-2,0%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>14,35%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>37,28%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-25,42%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 0,8</t>
+          <t>-8,05; 11,34</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 2,51</t>
+          <t>-4,58; 13,24</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 1,06</t>
+          <t>-25,03; 9,18</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 3,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-48,82; 173,51</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-29,31; 164,61</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-64,83; 61,34</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-0,55%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,34 +1732,449 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 3,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 3,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 31,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 24,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>4,45</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>-2,74</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>44,1%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>13,93%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-21,73%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>12,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 8,17</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 4,23</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-6,22; 0,8</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-2,87; 6,59</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>7,99; 93,91</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-8,89; 45,77</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-41,49; 8,26</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-22,41; 67,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-5,04</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-2,0</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-6,6%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-2,64%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-2,34%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-2,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-9,55; -0,01</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-6,03; 2,14</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; 4,34</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-8,82; 4,74</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-12,16; 0,0</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-7,76; 2,94</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-10,07; 6,79</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-11,89; 7,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>4,32</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>21,55%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 3,92</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 3,99</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 9,3</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-5,61; 5,4</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-21,11; 34,41</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-16,86; 34,71</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 55,15</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-23,97; 32,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P24_7-Urba-long_bre.xlsx
+++ b/data/long_bre/P24_7-Urba-long_bre.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -720,7 +720,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -816,7 +816,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1012,7 +1012,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1108,7 +1108,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1292,7 +1292,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1376,7 +1376,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1560,7 +1560,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1656,7 +1656,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
